--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_138.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_138.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[(8.98, 20.58)]</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:00:34.940000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -618,223 +630,224 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(40.96, 43.3)]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.8, 48.28)]</t>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+          <t>[('0:02:01.740000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -843,362 +856,320 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(128.76, 134.6)]</t>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1120923913043478</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[['D:7', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:42.620000', '0:00:45.060000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1093350383631713</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E/7']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.201473, 13.148866)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.98, 20.58)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.62, 15.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
